--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="328">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -97,913 +97,910 @@
     <t>0.998+/-0.0</t>
   </si>
   <si>
-    <t>0.786+/-0.0</t>
+    <t>0.791+/-0.0</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714+/-0.008</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.972+/-0.007</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.649+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.637+/-0.002</t>
+  </si>
+  <si>
+    <t>0.635+/-0.015</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.703+/-0.002</t>
+  </si>
+  <si>
+    <t>0.7+/-0.021</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.367+/-0.032</t>
+  </si>
+  <si>
+    <t>0.59+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.0</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.562+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.005</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.815+/-0.003</t>
+  </si>
+  <si>
+    <t>0.815+/-0.014</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.599+/-0.001</t>
+  </si>
+  <si>
+    <t>0.599+/-0.0</t>
+  </si>
+  <si>
+    <t>0.554</t>
+  </si>
+  <si>
+    <t>0.589+/-0.001</t>
+  </si>
+  <si>
+    <t>0.589+/-0.007</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.656+/-0.003</t>
+  </si>
+  <si>
+    <t>0.657+/-0.02</t>
+  </si>
+  <si>
+    <t>0.009+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806+/-0.009</t>
+  </si>
+  <si>
+    <t>0.75+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.778+/-0.023</t>
+  </si>
+  <si>
+    <t>0.724+/-0.021</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.86+/-0.044</t>
+  </si>
+  <si>
+    <t>0.812+/-0.054</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>5.782+/-0.953</t>
+  </si>
+  <si>
+    <t>0.806+/-0.004</t>
+  </si>
+  <si>
+    <t>0.745+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.775+/-0.008</t>
+  </si>
+  <si>
+    <t>0.719+/-0.024</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.862+/-0.011</t>
+  </si>
+  <si>
+    <t>0.804+/-0.015</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.183+/-0.004</t>
+  </si>
+  <si>
+    <t>0.78+/-0.006</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.741+/-0.01</t>
+  </si>
+  <si>
+    <t>0.695+/-0.021</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.86+/-0.018</t>
+  </si>
+  <si>
+    <t>0.815+/-0.013</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.271+/-0.005</t>
+  </si>
+  <si>
+    <t>0.735+/-0.001</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.711+/-0.003</t>
+  </si>
+  <si>
+    <t>0.691+/-0.012</t>
+  </si>
+  <si>
+    <t>0.308</t>
+  </si>
+  <si>
+    <t>0.791+/-0.004</t>
+  </si>
+  <si>
+    <t>0.768+/-0.019</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>35.859+/-4.164</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.808+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.726+/-0.011</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.99+/-0.003</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.659+/-0.002</t>
+  </si>
+  <si>
+    <t>0.657+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.651+/-0.001</t>
+  </si>
+  <si>
+    <t>0.649+/-0.011</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.686+/-0.004</t>
+  </si>
+  <si>
+    <t>0.685+/-0.019</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.391+/-0.037</t>
+  </si>
+  <si>
+    <t>0.6+/-0.002</t>
+  </si>
+  <si>
+    <t>0.6+/-0.0</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.573+/-0.002</t>
+  </si>
+  <si>
+    <t>0.573+/-0.013</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.783+/-0.005</t>
+  </si>
+  <si>
+    <t>0.783+/-0.01</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.01+/-0.004</t>
+  </si>
+  <si>
+    <t>0.607+/-0.001</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.596+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.014</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.662+/-0.002</t>
+  </si>
+  <si>
+    <t>0.662+/-0.01</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.842+/-0.006</t>
+  </si>
+  <si>
+    <t>0.789+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.807+/-0.016</t>
+  </si>
+  <si>
+    <t>0.754+/-0.019</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.9+/-0.027</t>
+  </si>
+  <si>
+    <t>0.86+/-0.03</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>4.534+/-1.517</t>
+  </si>
+  <si>
+    <t>0.834+/-0.004</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.806+/-0.022</t>
+  </si>
+  <si>
+    <t>0.752+/-0.022</t>
+  </si>
+  <si>
+    <t>0.206</t>
+  </si>
+  <si>
+    <t>0.883+/-0.039</t>
+  </si>
+  <si>
+    <t>0.829+/-0.041</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>0.196+/-0.01</t>
+  </si>
+  <si>
+    <t>0.818+/-0.01</t>
+  </si>
+  <si>
+    <t>0.771+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798+/-0.027</t>
+  </si>
+  <si>
+    <t>0.754+/-0.021</t>
+  </si>
+  <si>
+    <t>0.856+/-0.053</t>
+  </si>
+  <si>
+    <t>0.808+/-0.054</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.288+/-0.012</t>
+  </si>
+  <si>
+    <t>0.764+/-0.001</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.745+/-0.002</t>
+  </si>
+  <si>
+    <t>0.723+/-0.011</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.803+/-0.004</t>
+  </si>
+  <si>
+    <t>0.783+/-0.015</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>37.515+/-2.18</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.72+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.658+/-0.009</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.917+/-0.01</t>
+  </si>
+  <si>
+    <t>0.553</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.586+/-0.001</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.597+/-0.001</t>
+  </si>
+  <si>
+    <t>0.593+/-0.015</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.53+/-0.003</t>
+  </si>
+  <si>
+    <t>0.526+/-0.025</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.178+/-0.026</t>
+  </si>
+  <si>
+    <t>0.56+/-0.002</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.587+/-0.003</t>
+  </si>
+  <si>
+    <t>0.586+/-0.021</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.404+/-0.014</t>
+  </si>
+  <si>
+    <t>0.401+/-0.027</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.57+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.017</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.506+/-0.002</t>
+  </si>
+  <si>
+    <t>0.505+/-0.015</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.723+/-0.008</t>
+  </si>
+  <si>
+    <t>0.643+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.704+/-0.016</t>
+  </si>
+  <si>
+    <t>0.63+/-0.017</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.772+/-0.045</t>
+  </si>
+  <si>
+    <t>0.695+/-0.057</t>
+  </si>
+  <si>
+    <t>0.454</t>
+  </si>
+  <si>
+    <t>4.086+/-0.629</t>
+  </si>
+  <si>
+    <t>0.73+/-0.009</t>
+  </si>
+  <si>
+    <t>0.666+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.735+/-0.026</t>
+  </si>
+  <si>
+    <t>0.669+/-0.024</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.725+/-0.039</t>
+  </si>
+  <si>
+    <t>0.663+/-0.045</t>
+  </si>
+  <si>
+    <t>0.416</t>
+  </si>
+  <si>
+    <t>0.13+/-0.005</t>
+  </si>
+  <si>
+    <t>0.713+/-0.005</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.717+/-0.016</t>
+  </si>
+  <si>
+    <t>0.656+/-0.019</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.706+/-0.029</t>
+  </si>
+  <si>
+    <t>0.65+/-0.033</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.192+/-0.008</t>
+  </si>
+  <si>
+    <t>0.624+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.646+/-0.003</t>
+  </si>
+  <si>
+    <t>0.614+/-0.016</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.705+/-0.008</t>
+  </si>
+  <si>
+    <t>0.672+/-0.026</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>31.582+/-1.1</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.647+/-0.01</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.892+/-0.014</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.567+/-0.002</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.566+/-0.013</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.546+/-0.004</t>
+  </si>
+  <si>
+    <t>0.543+/-0.026</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>0.19+/-0.015</t>
+  </si>
+  <si>
+    <t>0.545+/-0.002</t>
+  </si>
+  <si>
+    <t>0.545+/-0.0</t>
   </si>
   <si>
     <t>0.592</t>
   </si>
   <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71+/-0.012</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.969+/-0.007</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.653+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.64+/-0.002</t>
-  </si>
-  <si>
-    <t>0.636+/-0.011</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.702+/-0.002</t>
-  </si>
-  <si>
-    <t>0.699+/-0.012</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.381+/-0.035</t>
-  </si>
-  <si>
-    <t>0.589+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.446</t>
-  </si>
-  <si>
-    <t>0.562+/-0.001</t>
-  </si>
-  <si>
-    <t>0.562+/-0.009</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.807+/-0.004</t>
-  </si>
-  <si>
-    <t>0.808+/-0.019</t>
-  </si>
-  <si>
-    <t>0.741</t>
+    <t>0.557+/-0.004</t>
+  </si>
+  <si>
+    <t>0.556+/-0.022</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.444+/-0.015</t>
+  </si>
+  <si>
+    <t>0.443+/-0.034</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.006+/-0.002</t>
+  </si>
+  <si>
+    <t>0.551+/-0.002</t>
+  </si>
+  <si>
+    <t>0.55+/-0.0</t>
+  </si>
+  <si>
+    <t>0.558+/-0.002</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.491+/-0.002</t>
+  </si>
+  <si>
+    <t>0.491+/-0.025</t>
+  </si>
+  <si>
+    <t>0.485</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.596+/-0.001</t>
-  </si>
-  <si>
-    <t>0.596+/-0.0</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.586+/-0.001</t>
-  </si>
-  <si>
-    <t>0.586+/-0.007</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.651+/-0.015</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.01+/-0.0</t>
-  </si>
-  <si>
-    <t>0.811+/-0.008</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.791+/-0.024</t>
-  </si>
-  <si>
-    <t>0.726+/-0.017</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.847+/-0.039</t>
-  </si>
-  <si>
-    <t>0.789+/-0.056</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>4.571+/-1.178</t>
-  </si>
-  <si>
-    <t>0.808+/-0.006</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.781+/-0.012</t>
-  </si>
-  <si>
-    <t>0.72+/-0.021</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>0.857+/-0.014</t>
-  </si>
-  <si>
-    <t>0.801+/-0.02</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.157+/-0.014</t>
-  </si>
-  <si>
-    <t>0.78+/-0.007</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.745+/-0.006</t>
-  </si>
-  <si>
-    <t>0.7+/-0.016</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>0.852+/-0.013</t>
-  </si>
-  <si>
-    <t>0.8+/-0.024</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.213+/-0.012</t>
-  </si>
-  <si>
-    <t>0.74+/-0.002</t>
-  </si>
-  <si>
-    <t>0.713+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.72+/-0.002</t>
-  </si>
-  <si>
-    <t>0.696+/-0.01</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.759+/-0.018</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>42.566+/-3.933</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.728+/-0.011</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.99+/-0.003</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.661+/-0.002</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.655+/-0.002</t>
-  </si>
-  <si>
-    <t>0.653+/-0.012</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.681+/-0.005</t>
-  </si>
-  <si>
-    <t>0.68+/-0.021</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.412+/-0.046</t>
-  </si>
-  <si>
-    <t>0.602+/-0.002</t>
-  </si>
-  <si>
-    <t>0.602+/-0.0</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>0.574+/-0.002</t>
-  </si>
-  <si>
-    <t>0.574+/-0.013</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.794+/-0.006</t>
-  </si>
-  <si>
-    <t>0.792+/-0.021</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.01+/-0.002</t>
-  </si>
-  <si>
-    <t>0.607+/-0.002</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.596+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.016</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.661+/-0.003</t>
-  </si>
-  <si>
-    <t>0.661+/-0.022</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.841+/-0.004</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.819+/-0.011</t>
-  </si>
-  <si>
-    <t>0.761+/-0.017</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.877+/-0.027</t>
-  </si>
-  <si>
-    <t>0.835+/-0.033</t>
-  </si>
-  <si>
-    <t>0.505</t>
-  </si>
-  <si>
-    <t>4.792+/-1.495</t>
-  </si>
-  <si>
-    <t>0.82+/-0.007</t>
-  </si>
-  <si>
-    <t>0.761+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.841+/-0.049</t>
-  </si>
-  <si>
-    <t>0.777+/-0.046</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.8+/-0.079</t>
-  </si>
-  <si>
-    <t>0.744+/-0.08</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.159+/-0.012</t>
-  </si>
-  <si>
-    <t>0.807+/-0.011</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.811+/-0.047</t>
-  </si>
-  <si>
-    <t>0.76+/-0.039</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.811+/-0.071</t>
-  </si>
-  <si>
-    <t>0.772+/-0.076</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>0.235+/-0.009</t>
-  </si>
-  <si>
-    <t>0.768+/-0.001</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.729+/-0.013</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.802+/-0.002</t>
-  </si>
-  <si>
-    <t>0.785+/-0.01</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>38.623+/-2.737</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.665+/-0.009</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.918+/-0.017</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587+/-0.002</t>
-  </si>
-  <si>
-    <t>0.585+/-0.0</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.594+/-0.018</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.539+/-0.004</t>
-  </si>
-  <si>
-    <t>0.535+/-0.025</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.174+/-0.032</t>
-  </si>
-  <si>
-    <t>0.56+/-0.002</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.582+/-0.004</t>
-  </si>
-  <si>
-    <t>0.583+/-0.014</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.427+/-0.01</t>
-  </si>
-  <si>
-    <t>0.427+/-0.028</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.571+/-0.014</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.515+/-0.002</t>
-  </si>
-  <si>
-    <t>0.516+/-0.02</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.731+/-0.01</t>
-  </si>
-  <si>
-    <t>0.64+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.719+/-0.011</t>
-  </si>
-  <si>
-    <t>0.633+/-0.01</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.759+/-0.031</t>
-  </si>
-  <si>
-    <t>0.669+/-0.036</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>3.697+/-0.733</t>
-  </si>
-  <si>
-    <t>0.756+/-0.006</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.752+/-0.007</t>
-  </si>
-  <si>
-    <t>0.674+/-0.013</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.763+/-0.017</t>
-  </si>
-  <si>
-    <t>0.686+/-0.023</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.118+/-0.01</t>
-  </si>
-  <si>
-    <t>0.733+/-0.007</t>
-  </si>
-  <si>
-    <t>0.679+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.733+/-0.012</t>
-  </si>
-  <si>
-    <t>0.679+/-0.022</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.734+/-0.021</t>
-  </si>
-  <si>
-    <t>0.681+/-0.028</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.148+/-0.007</t>
-  </si>
-  <si>
-    <t>0.668+/-0.002</t>
-  </si>
-  <si>
-    <t>0.63+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659+/-0.002</t>
-  </si>
-  <si>
-    <t>0.622+/-0.018</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.698+/-0.007</t>
-  </si>
-  <si>
-    <t>0.661+/-0.012</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>32.58+/-0.868</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.697+/-0.0</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.643+/-0.007</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.887+/-0.015</t>
-  </si>
-  <si>
-    <t>0.566+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.57+/-0.003</t>
-  </si>
-  <si>
-    <t>0.564+/-0.013</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.542+/-0.007</t>
-  </si>
-  <si>
-    <t>0.536+/-0.017</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.167+/-0.016</t>
-  </si>
-  <si>
-    <t>0.538+/-0.003</t>
-  </si>
-  <si>
-    <t>0.538+/-0.0</t>
-  </si>
-  <si>
-    <t>0.56+/-0.003</t>
-  </si>
-  <si>
-    <t>0.56+/-0.022</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.356+/-0.019</t>
-  </si>
-  <si>
-    <t>0.358+/-0.025</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.004+/-0.0</t>
-  </si>
-  <si>
-    <t>0.552+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.558+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.018</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.495+/-0.002</t>
-  </si>
-  <si>
-    <t>0.493+/-0.021</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.704+/-0.013</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.69+/-0.027</t>
-  </si>
-  <si>
-    <t>0.611+/-0.025</t>
-  </si>
-  <si>
-    <t>0.75+/-0.076</t>
-  </si>
-  <si>
-    <t>0.672+/-0.084</t>
-  </si>
-  <si>
-    <t>3.525+/-0.881</t>
-  </si>
-  <si>
-    <t>0.735+/-0.005</t>
-  </si>
-  <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
-    <t>0.741+/-0.011</t>
-  </si>
-  <si>
-    <t>0.668+/-0.014</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.723+/-0.029</t>
-  </si>
-  <si>
-    <t>0.652+/-0.034</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.113+/-0.007</t>
-  </si>
-  <si>
-    <t>0.718+/-0.007</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.735+/-0.013</t>
-  </si>
-  <si>
-    <t>0.679+/-0.019</t>
+    <t>0.705+/-0.01</t>
+  </si>
+  <si>
+    <t>0.621+/-0.0</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.687+/-0.02</t>
+  </si>
+  <si>
+    <t>0.608+/-0.017</t>
+  </si>
+  <si>
+    <t>0.758+/-0.046</t>
+  </si>
+  <si>
+    <t>0.685+/-0.044</t>
+  </si>
+  <si>
+    <t>3.79+/-0.795</t>
+  </si>
+  <si>
+    <t>0.737+/-0.005</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.725+/-0.009</t>
+  </si>
+  <si>
+    <t>0.647+/-0.008</t>
   </si>
   <si>
     <t>0.364</t>
   </si>
   <si>
-    <t>0.683+/-0.044</t>
-  </si>
-  <si>
-    <t>0.635+/-0.047</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.153+/-0.016</t>
-  </si>
-  <si>
-    <t>0.646+/-0.002</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.015</t>
-  </si>
-  <si>
-    <t>0.681+/-0.009</t>
-  </si>
-  <si>
-    <t>0.643+/-0.03</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>29.749+/-2.463</t>
+    <t>0.762+/-0.015</t>
+  </si>
+  <si>
+    <t>0.684+/-0.023</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.121+/-0.007</t>
+  </si>
+  <si>
+    <t>0.711+/-0.005</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.705+/-0.017</t>
+  </si>
+  <si>
+    <t>0.649+/-0.021</t>
+  </si>
+  <si>
+    <t>0.727+/-0.035</t>
+  </si>
+  <si>
+    <t>0.665+/-0.034</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.177+/-0.007</t>
+  </si>
+  <si>
+    <t>0.648+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.639+/-0.002</t>
+  </si>
+  <si>
+    <t>0.599+/-0.017</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.683+/-0.004</t>
+  </si>
+  <si>
+    <t>0.645+/-0.02</t>
+  </si>
+  <si>
+    <t>28.93+/-2.391</t>
   </si>
 </sst>
 </file>
@@ -1416,13 +1413,13 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
         <v>94</v>
@@ -1448,13 +1445,13 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>95</v>
@@ -1480,13 +1477,13 @@
         <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
         <v>96</v>
@@ -1512,10 +1509,10 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
@@ -1544,10 +1541,10 @@
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>88</v>
@@ -1576,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
         <v>89</v>
@@ -1608,10 +1605,10 @@
         <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
         <v>90</v>
@@ -1640,10 +1637,10 @@
         <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
         <v>91</v>
@@ -1669,13 +1666,13 @@
         <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
         <v>92</v>
@@ -1701,13 +1698,13 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
         <v>93</v>
@@ -1769,22 +1766,22 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
         <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
         <v>169</v>
@@ -1798,25 +1795,25 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
         <v>170</v>
@@ -1830,25 +1827,25 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
         <v>171</v>
@@ -1865,22 +1862,22 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>172</v>
@@ -1894,25 +1891,25 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
         <v>173</v>
@@ -1926,25 +1923,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
         <v>174</v>
@@ -1961,19 +1958,19 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>165</v>
@@ -1990,22 +1987,22 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
         <v>166</v>
@@ -2022,22 +2019,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
         <v>167</v>
@@ -2051,25 +2048,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
         <v>168</v>
@@ -2128,28 +2125,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
         <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2160,28 +2157,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2192,28 +2189,28 @@
         <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2227,25 +2224,25 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
         <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2256,7 +2253,7 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>193</v>
@@ -2265,19 +2262,19 @@
         <v>203</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2288,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
         <v>194</v>
@@ -2297,19 +2294,19 @@
         <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2320,7 +2317,7 @@
         <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>195</v>
@@ -2329,19 +2326,19 @@
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2352,7 +2349,7 @@
         <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -2361,19 +2358,19 @@
         <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2384,7 +2381,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>197</v>
@@ -2393,19 +2390,19 @@
         <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2413,10 +2410,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
         <v>198</v>
@@ -2425,19 +2422,19 @@
         <v>208</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2493,25 +2490,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2522,28 +2519,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>285</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2551,31 +2548,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2583,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
         <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2615,31 +2612,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
         <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2650,28 +2647,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
         <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2679,28 +2676,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J8" t="s">
         <v>325</v>
@@ -2711,28 +2708,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
         <v>281</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
         <v>326</v>
@@ -2746,28 +2743,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
         <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J10" t="s">
-        <v>327</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2775,31 +2772,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
         <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="425">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,22 +73,34 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
@@ -97,910 +109,1189 @@
     <t>0.998+/-0.0</t>
   </si>
   <si>
-    <t>0.791+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.787</t>
   </si>
   <si>
     <t>0.996+/-0.0</t>
   </si>
   <si>
-    <t>0.714+/-0.008</t>
-  </si>
-  <si>
-    <t>0.278</t>
+    <t>0.293+/-0.021</t>
+  </si>
+  <si>
+    <t>0.419</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.972+/-0.007</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.649+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.637+/-0.002</t>
-  </si>
-  <si>
-    <t>0.635+/-0.015</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.703+/-0.002</t>
-  </si>
-  <si>
-    <t>0.7+/-0.021</t>
+    <t>0.636+/-0.037</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>1.0+/-0.001</t>
+  </si>
+  <si>
+    <t>0.667+/-0.028</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.652+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.637+/-0.004</t>
+  </si>
+  <si>
+    <t>0.301+/-0.012</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.704+/-0.005</t>
+  </si>
+  <si>
+    <t>0.684+/-0.052</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.71+/-0.003</t>
+  </si>
+  <si>
+    <t>0.694+/-0.02</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.402+/-0.057</t>
+  </si>
+  <si>
+    <t>0.585+/-0.002</t>
+  </si>
+  <si>
+    <t>0.445+/-0.0</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.559+/-0.001</t>
+  </si>
+  <si>
+    <t>0.238+/-0.01</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.815+/-0.01</t>
+  </si>
+  <si>
+    <t>0.798+/-0.031</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.658+/-0.003</t>
+  </si>
+  <si>
+    <t>0.648+/-0.022</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.017+/-0.009</t>
+  </si>
+  <si>
+    <t>0.595+/-0.002</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.259+/-0.012</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.644+/-0.037</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.644+/-0.002</t>
+  </si>
+  <si>
+    <t>0.635+/-0.022</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.017+/-0.006</t>
+  </si>
+  <si>
+    <t>0.814+/-0.008</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>0.788+/-0.01</t>
+  </si>
+  <si>
+    <t>0.314+/-0.02</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.861+/-0.014</t>
+  </si>
+  <si>
+    <t>0.552+/-0.066</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.894+/-0.008</t>
+  </si>
+  <si>
+    <t>0.681+/-0.025</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>12.225+/-2.196</t>
+  </si>
+  <si>
+    <t>0.799+/-0.008</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784+/-0.028</t>
+  </si>
+  <si>
+    <t>0.291+/-0.031</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.832+/-0.039</t>
+  </si>
+  <si>
+    <t>0.48+/-0.073</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.899+/-0.006</t>
+  </si>
+  <si>
+    <t>0.64+/-0.029</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>0.225+/-0.022</t>
+  </si>
+  <si>
+    <t>0.78+/-0.006</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.766+/-0.04</t>
+  </si>
+  <si>
+    <t>0.319+/-0.052</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.815+/-0.058</t>
+  </si>
+  <si>
+    <t>0.546+/-0.054</t>
+  </si>
+  <si>
+    <t>0.885+/-0.007</t>
+  </si>
+  <si>
+    <t>0.667+/-0.036</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.304+/-0.02</t>
+  </si>
+  <si>
+    <t>0.744+/-0.002</t>
+  </si>
+  <si>
+    <t>0.66+/-0.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.723+/-0.004</t>
+  </si>
+  <si>
+    <t>0.322+/-0.025</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.793+/-0.007</t>
+  </si>
+  <si>
+    <t>0.627+/-0.063</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.829+/-0.002</t>
+  </si>
+  <si>
+    <t>0.706+/-0.028</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>61.616+/-1.13</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.002+/-0.004</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.23+/-0.017</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.608+/-0.055</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.999+/-0.001</t>
+  </si>
+  <si>
+    <t>0.673+/-0.026</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.657+/-0.006</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.65+/-0.005</t>
+  </si>
+  <si>
+    <t>0.237+/-0.012</t>
+  </si>
+  <si>
+    <t>0.683+/-0.012</t>
+  </si>
+  <si>
+    <t>0.658+/-0.038</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.724+/-0.005</t>
+  </si>
+  <si>
+    <t>0.706+/-0.019</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.496+/-0.085</t>
+  </si>
+  <si>
+    <t>0.591+/-0.002</t>
+  </si>
+  <si>
+    <t>0.565+/-0.002</t>
+  </si>
+  <si>
+    <t>0.184+/-0.009</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.795+/-0.01</t>
+  </si>
+  <si>
+    <t>0.787+/-0.032</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.665+/-0.002</t>
+  </si>
+  <si>
+    <t>0.661+/-0.024</t>
+  </si>
+  <si>
+    <t>0.017+/-0.003</t>
+  </si>
+  <si>
+    <t>0.604+/-0.002</t>
+  </si>
+  <si>
+    <t>0.563+/-0.0</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.593+/-0.002</t>
+  </si>
+  <si>
+    <t>0.202+/-0.011</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.661+/-0.004</t>
+  </si>
+  <si>
+    <t>0.649+/-0.031</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.657+/-0.003</t>
+  </si>
+  <si>
+    <t>0.646+/-0.018</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.021+/-0.015</t>
+  </si>
+  <si>
+    <t>0.847+/-0.004</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.839</t>
+  </si>
+  <si>
+    <t>0.823+/-0.008</t>
+  </si>
+  <si>
+    <t>0.258+/-0.02</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.885+/-0.013</t>
+  </si>
+  <si>
+    <t>0.501+/-0.035</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.921+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.018</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>13.646+/-2.121</t>
+  </si>
+  <si>
+    <t>0.824+/-0.006</t>
+  </si>
+  <si>
+    <t>0.679+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.797+/-0.019</t>
+  </si>
+  <si>
+    <t>0.226+/-0.027</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.872+/-0.033</t>
+  </si>
+  <si>
+    <t>0.461+/-0.043</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.918+/-0.005</t>
+  </si>
+  <si>
+    <t>0.622+/-0.024</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.226+/-0.012</t>
+  </si>
+  <si>
+    <t>0.81+/-0.007</t>
+  </si>
+  <si>
+    <t>0.708+/-0.0</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>0.807+/-0.042</t>
+  </si>
+  <si>
+    <t>0.251+/-0.038</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.823+/-0.068</t>
+  </si>
+  <si>
+    <t>0.448+/-0.077</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.91+/-0.004</t>
+  </si>
+  <si>
+    <t>0.646+/-0.028</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>0.335+/-0.015</t>
+  </si>
+  <si>
+    <t>0.761+/-0.004</t>
+  </si>
+  <si>
+    <t>0.685+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741+/-0.004</t>
+  </si>
+  <si>
+    <t>0.262+/-0.015</t>
+  </si>
+  <si>
+    <t>0.803+/-0.009</t>
+  </si>
+  <si>
+    <t>0.609+/-0.043</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.847+/-0.002</t>
+  </si>
+  <si>
+    <t>0.711+/-0.014</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>68.37+/-2.774</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.998+/-0.001</t>
+  </si>
+  <si>
+    <t>0.536+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.312+/-0.015</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.996+/-0.001</t>
+  </si>
+  <si>
+    <t>0.562+/-0.03</t>
+  </si>
+  <si>
+    <t>0.568+/-0.026</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.586+/-0.004</t>
+  </si>
+  <si>
+    <t>0.609+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.597+/-0.004</t>
+  </si>
+  <si>
+    <t>0.36+/-0.014</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.529+/-0.011</t>
+  </si>
+  <si>
+    <t>0.526+/-0.027</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.624+/-0.002</t>
+  </si>
+  <si>
+    <t>0.614+/-0.013</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.213+/-0.054</t>
+  </si>
+  <si>
+    <t>0.557+/-0.003</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.582+/-0.005</t>
+  </si>
+  <si>
+    <t>0.349+/-0.022</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.406+/-0.04</t>
+  </si>
+  <si>
+    <t>0.404+/-0.039</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.593+/-0.003</t>
+  </si>
+  <si>
+    <t>0.588+/-0.019</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.013+/-0.009</t>
+  </si>
+  <si>
+    <t>0.563+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.0</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.571+/-0.004</t>
+  </si>
+  <si>
+    <t>0.337+/-0.021</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.503+/-0.006</t>
+  </si>
+  <si>
+    <t>0.501+/-0.024</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.587+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.023</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.034+/-0.04</t>
+  </si>
+  <si>
+    <t>0.732+/-0.012</t>
+  </si>
+  <si>
+    <t>0.569+/-0.0</t>
+  </si>
+  <si>
+    <t>0.71+/-0.009</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.787+/-0.052</t>
+  </si>
+  <si>
+    <t>0.497+/-0.048</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.814+/-0.012</t>
+  </si>
+  <si>
+    <t>0.563+/-0.02</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>18.324+/-7.311</t>
+  </si>
+  <si>
+    <t>0.722+/-0.008</t>
+  </si>
+  <si>
+    <t>0.585+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.718+/-0.035</t>
+  </si>
+  <si>
+    <t>0.328+/-0.019</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.74+/-0.066</t>
+  </si>
+  <si>
+    <t>0.467+/-0.078</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.82+/-0.009</t>
+  </si>
+  <si>
+    <t>0.556+/-0.017</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>0.173+/-0.016</t>
+  </si>
+  <si>
+    <t>0.703+/-0.009</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.688+/-0.025</t>
+  </si>
+  <si>
+    <t>0.325+/-0.023</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.751+/-0.046</t>
+  </si>
+  <si>
+    <t>0.506+/-0.068</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.802+/-0.008</t>
+  </si>
+  <si>
+    <t>0.568+/-0.03</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.377+/-0.157</t>
+  </si>
+  <si>
+    <t>0.66+/-0.004</t>
+  </si>
+  <si>
+    <t>0.58+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.65+/-0.004</t>
+  </si>
+  <si>
+    <t>0.343+/-0.015</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.696+/-0.015</t>
+  </si>
+  <si>
+    <t>0.562+/-0.022</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.732+/-0.003</t>
+  </si>
+  <si>
+    <t>0.597+/-0.019</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>54.314+/-2.021</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.002+/-0.002</t>
+  </si>
+  <si>
+    <t>0.527+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.336+/-0.016</t>
+  </si>
+  <si>
+    <t>0.548+/-0.024</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.552+/-0.019</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.566+/-0.005</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.363+/-0.019</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.535+/-0.017</t>
+  </si>
+  <si>
+    <t>0.519+/-0.025</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.599+/-0.004</t>
+  </si>
+  <si>
+    <t>0.587+/-0.019</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.259+/-0.047</t>
+  </si>
+  <si>
+    <t>0.544+/-0.003</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.561+/-0.005</t>
+  </si>
+  <si>
+    <t>0.361+/-0.02</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.408+/-0.031</t>
+  </si>
+  <si>
+    <t>0.406+/-0.047</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.574+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.011</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.551+/-0.003</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.558+/-0.004</t>
+  </si>
+  <si>
+    <t>0.359+/-0.009</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.497+/-0.005</t>
+  </si>
+  <si>
+    <t>0.497+/-0.023</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.567+/-0.003</t>
+  </si>
+  <si>
+    <t>0.565+/-0.014</t>
+  </si>
+  <si>
+    <t>0.014+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.011</t>
+  </si>
+  <si>
+    <t>0.567+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.704+/-0.017</t>
+  </si>
+  <si>
+    <t>0.353+/-0.016</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.729+/-0.066</t>
+  </si>
+  <si>
+    <t>0.486+/-0.069</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.792+/-0.011</t>
+  </si>
+  <si>
+    <t>0.559+/-0.016</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>25.231+/-6.649</t>
+  </si>
+  <si>
+    <t>0.742+/-0.007</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
   </si>
   <si>
     <t>0.661</t>
   </si>
   <si>
-    <t>0.367+/-0.032</t>
-  </si>
-  <si>
-    <t>0.59+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.0</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.562+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.005</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.815+/-0.003</t>
-  </si>
-  <si>
-    <t>0.815+/-0.014</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.599+/-0.001</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554</t>
-  </si>
-  <si>
-    <t>0.589+/-0.001</t>
-  </si>
-  <si>
-    <t>0.589+/-0.007</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.656+/-0.003</t>
-  </si>
-  <si>
-    <t>0.657+/-0.02</t>
-  </si>
-  <si>
-    <t>0.009+/-0.0</t>
-  </si>
-  <si>
-    <t>0.806+/-0.009</t>
-  </si>
-  <si>
-    <t>0.75+/-0.0</t>
+    <t>0.745+/-0.014</t>
+  </si>
+  <si>
+    <t>0.35+/-0.015</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.738+/-0.022</t>
+  </si>
+  <si>
+    <t>0.416+/-0.036</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.838+/-0.009</t>
+  </si>
+  <si>
+    <t>0.538+/-0.014</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.193+/-0.036</t>
+  </si>
+  <si>
+    <t>0.716+/-0.009</t>
   </si>
   <si>
     <t>0.675</t>
   </si>
   <si>
-    <t>0.778+/-0.023</t>
-  </si>
-  <si>
-    <t>0.724+/-0.021</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.86+/-0.044</t>
-  </si>
-  <si>
-    <t>0.812+/-0.054</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>5.782+/-0.953</t>
-  </si>
-  <si>
-    <t>0.806+/-0.004</t>
-  </si>
-  <si>
-    <t>0.745+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.775+/-0.008</t>
-  </si>
-  <si>
-    <t>0.719+/-0.024</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.862+/-0.011</t>
-  </si>
-  <si>
-    <t>0.804+/-0.015</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.183+/-0.004</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.728+/-0.0</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.741+/-0.01</t>
-  </si>
-  <si>
-    <t>0.695+/-0.021</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.86+/-0.018</t>
-  </si>
-  <si>
-    <t>0.815+/-0.013</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.271+/-0.005</t>
-  </si>
-  <si>
-    <t>0.735+/-0.001</t>
-  </si>
-  <si>
-    <t>0.712+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.711+/-0.003</t>
-  </si>
-  <si>
-    <t>0.691+/-0.012</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.791+/-0.004</t>
-  </si>
-  <si>
-    <t>0.768+/-0.019</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>35.859+/-4.164</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.726+/-0.011</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.99+/-0.003</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.659+/-0.002</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.651+/-0.001</t>
-  </si>
-  <si>
-    <t>0.649+/-0.011</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.686+/-0.004</t>
-  </si>
-  <si>
-    <t>0.685+/-0.019</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.391+/-0.037</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.6+/-0.0</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.573+/-0.013</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.783+/-0.005</t>
-  </si>
-  <si>
-    <t>0.783+/-0.01</t>
-  </si>
-  <si>
-    <t>0.731</t>
-  </si>
-  <si>
-    <t>0.01+/-0.004</t>
-  </si>
-  <si>
-    <t>0.607+/-0.001</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.596+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.014</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.662+/-0.002</t>
-  </si>
-  <si>
-    <t>0.662+/-0.01</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.842+/-0.006</t>
-  </si>
-  <si>
-    <t>0.789+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.807+/-0.016</t>
-  </si>
-  <si>
-    <t>0.754+/-0.019</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.9+/-0.027</t>
-  </si>
-  <si>
-    <t>0.86+/-0.03</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>4.534+/-1.517</t>
-  </si>
-  <si>
-    <t>0.834+/-0.004</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.806+/-0.022</t>
-  </si>
-  <si>
-    <t>0.752+/-0.022</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.883+/-0.039</t>
-  </si>
-  <si>
-    <t>0.829+/-0.041</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>0.196+/-0.01</t>
-  </si>
-  <si>
-    <t>0.818+/-0.01</t>
-  </si>
-  <si>
-    <t>0.771+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798+/-0.027</t>
-  </si>
-  <si>
-    <t>0.754+/-0.021</t>
-  </si>
-  <si>
-    <t>0.856+/-0.053</t>
-  </si>
-  <si>
-    <t>0.808+/-0.054</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.288+/-0.012</t>
-  </si>
-  <si>
-    <t>0.764+/-0.001</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.745+/-0.002</t>
-  </si>
-  <si>
-    <t>0.723+/-0.011</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.803+/-0.004</t>
-  </si>
-  <si>
-    <t>0.783+/-0.015</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>37.515+/-2.18</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.72+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.658+/-0.009</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.917+/-0.01</t>
-  </si>
-  <si>
-    <t>0.553</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586+/-0.001</t>
-  </si>
-  <si>
-    <t>0.582+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.597+/-0.001</t>
-  </si>
-  <si>
-    <t>0.593+/-0.015</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.53+/-0.003</t>
-  </si>
-  <si>
-    <t>0.526+/-0.025</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.178+/-0.026</t>
-  </si>
-  <si>
-    <t>0.56+/-0.002</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.587+/-0.003</t>
-  </si>
-  <si>
-    <t>0.586+/-0.021</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.404+/-0.014</t>
-  </si>
-  <si>
-    <t>0.401+/-0.027</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.57+/-0.002</t>
-  </si>
-  <si>
-    <t>0.569+/-0.017</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.506+/-0.002</t>
-  </si>
-  <si>
-    <t>0.505+/-0.015</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.723+/-0.008</t>
-  </si>
-  <si>
-    <t>0.643+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.704+/-0.016</t>
-  </si>
-  <si>
-    <t>0.63+/-0.017</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.772+/-0.045</t>
-  </si>
-  <si>
-    <t>0.695+/-0.057</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>4.086+/-0.629</t>
-  </si>
-  <si>
-    <t>0.73+/-0.009</t>
-  </si>
-  <si>
-    <t>0.666+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.735+/-0.026</t>
-  </si>
-  <si>
-    <t>0.669+/-0.024</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.725+/-0.039</t>
-  </si>
-  <si>
-    <t>0.663+/-0.045</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.13+/-0.005</t>
-  </si>
-  <si>
-    <t>0.713+/-0.005</t>
-  </si>
-  <si>
-    <t>0.654+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.717+/-0.016</t>
-  </si>
-  <si>
-    <t>0.656+/-0.019</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.706+/-0.029</t>
-  </si>
-  <si>
-    <t>0.65+/-0.033</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.192+/-0.008</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.646+/-0.003</t>
-  </si>
-  <si>
-    <t>0.614+/-0.016</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.705+/-0.008</t>
-  </si>
-  <si>
-    <t>0.672+/-0.026</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>31.582+/-1.1</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.647+/-0.01</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.892+/-0.014</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.566+/-0.013</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.546+/-0.004</t>
-  </si>
-  <si>
-    <t>0.543+/-0.026</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.19+/-0.015</t>
-  </si>
-  <si>
-    <t>0.545+/-0.002</t>
-  </si>
-  <si>
-    <t>0.545+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.557+/-0.004</t>
-  </si>
-  <si>
-    <t>0.556+/-0.022</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.444+/-0.015</t>
-  </si>
-  <si>
-    <t>0.443+/-0.034</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.006+/-0.002</t>
-  </si>
-  <si>
-    <t>0.551+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558+/-0.002</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.491+/-0.002</t>
-  </si>
-  <si>
-    <t>0.491+/-0.025</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.705+/-0.01</t>
-  </si>
-  <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.549</t>
-  </si>
-  <si>
-    <t>0.687+/-0.02</t>
-  </si>
-  <si>
-    <t>0.608+/-0.017</t>
-  </si>
-  <si>
-    <t>0.758+/-0.046</t>
-  </si>
-  <si>
-    <t>0.685+/-0.044</t>
-  </si>
-  <si>
-    <t>3.79+/-0.795</t>
-  </si>
-  <si>
-    <t>0.737+/-0.005</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>0.725+/-0.009</t>
-  </si>
-  <si>
-    <t>0.647+/-0.008</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.762+/-0.015</t>
-  </si>
-  <si>
-    <t>0.684+/-0.023</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.121+/-0.007</t>
-  </si>
-  <si>
-    <t>0.711+/-0.005</t>
-  </si>
-  <si>
-    <t>0.652+/-0.0</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.705+/-0.017</t>
-  </si>
-  <si>
-    <t>0.649+/-0.021</t>
-  </si>
-  <si>
-    <t>0.727+/-0.035</t>
-  </si>
-  <si>
-    <t>0.665+/-0.034</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.177+/-0.007</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.639+/-0.002</t>
-  </si>
-  <si>
-    <t>0.599+/-0.017</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.683+/-0.004</t>
-  </si>
-  <si>
-    <t>0.645+/-0.02</t>
-  </si>
-  <si>
-    <t>28.93+/-2.391</t>
+    <t>0.715+/-0.013</t>
+  </si>
+  <si>
+    <t>0.352+/-0.009</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.72+/-0.023</t>
+  </si>
+  <si>
+    <t>0.43+/-0.027</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.81+/-0.008</t>
+  </si>
+  <si>
+    <t>0.551+/-0.016</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.284+/-0.039</t>
+  </si>
+  <si>
+    <t>0.656+/-0.004</t>
+  </si>
+  <si>
+    <t>0.559+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.645+/-0.005</t>
+  </si>
+  <si>
+    <t>0.356+/-0.016</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.697+/-0.016</t>
+  </si>
+  <si>
+    <t>0.536+/-0.031</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.724+/-0.004</t>
+  </si>
+  <si>
+    <t>0.576+/-0.017</t>
+  </si>
+  <si>
+    <t>56.267+/-2.452</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,31 +1689,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1430,31 +1721,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1462,31 +1753,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1494,31 +1785,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1526,31 +1817,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1558,31 +1849,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1590,31 +1881,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1622,31 +1913,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1654,31 +1945,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1686,31 +1977,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1760,31 +2147,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1792,31 +2179,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1824,31 +2211,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1856,31 +2243,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1888,31 +2275,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1920,31 +2307,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1952,31 +2339,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1984,31 +2371,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2016,31 +2403,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2048,31 +2435,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>140</v>
       </c>
-      <c r="G11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" t="s">
-        <v>178</v>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,31 +2605,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2154,31 +2637,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2186,31 +2669,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2218,31 +2701,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2250,31 +2733,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2282,31 +2765,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2314,31 +2797,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2346,31 +2829,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2378,31 +2861,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2410,31 +2893,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" t="s">
+        <v>315</v>
+      </c>
+      <c r="J14" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +3023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2484,31 +3063,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2516,31 +3095,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2548,31 +3127,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2580,31 +3159,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2612,31 +3191,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2644,31 +3223,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2676,31 +3255,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="J8" t="s">
-        <v>325</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2708,31 +3287,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2740,31 +3319,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="H10" t="s">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="I10" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2772,31 +3351,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="J11" t="s">
-        <v>327</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" t="s">
+        <v>411</v>
+      </c>
+      <c r="J13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14" t="s">
+        <v>400</v>
+      </c>
+      <c r="I14" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
